--- a/batch_excel/eqmove.xlsx
+++ b/batch_excel/eqmove.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\json_and_list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python_flask_2021092901\batch_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09036E17-5DA3-4D76-80A4-A3FAE76B9870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57F838F-7050-4851-A01D-4094F644A354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D256E0E4-CD53-4A85-9572-A526B47608A5}"/>
   </bookViews>
@@ -152,10 +152,6 @@
     <t>ER-A01-05</t>
   </si>
   <si>
-    <t>LSD023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>2021092910462800</t>
     </r>
@@ -268,6 +264,10 @@
   </si>
   <si>
     <t>EQMOVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSD022</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,7 +651,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -720,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1">
         <v>5349</v>
@@ -738,7 +738,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>19</v>
@@ -747,10 +747,10 @@
         <v>20</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>21</v>
@@ -764,7 +764,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1">
         <v>5349</v>
@@ -782,7 +782,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>19</v>
@@ -791,10 +791,10 @@
         <v>20</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>21</v>
@@ -808,7 +808,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1">
         <v>5349</v>
@@ -826,7 +826,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>19</v>
@@ -835,10 +835,10 @@
         <v>20</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>21</v>
@@ -852,7 +852,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>27</v>
@@ -870,7 +870,7 @@
         <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>19</v>
@@ -879,10 +879,10 @@
         <v>20</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>21</v>
@@ -896,7 +896,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1">
         <v>5349</v>
@@ -905,7 +905,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>18</v>
@@ -914,7 +914,7 @@
         <v>16</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>19</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>21</v>

--- a/batch_excel/eqmove.xlsx
+++ b/batch_excel/eqmove.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python_flask_2021092901\batch_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57F838F-7050-4851-A01D-4094F644A354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2773476-53D9-4CAE-8597-7934200248CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D256E0E4-CD53-4A85-9572-A526B47608A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D256E0E4-CD53-4A85-9572-A526B47608A5}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="65">
   <si>
     <t>strCARRIERTYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,6 +268,150 @@
   </si>
   <si>
     <t>LSD022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20210929104628000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER-B01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER-B01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20210929104628000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER-B01-02</t>
+  </si>
+  <si>
+    <r>
+      <t>20210929104628000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER-B01-03</t>
+  </si>
+  <si>
+    <r>
+      <t>20210929104628000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER-B01-04</t>
+  </si>
+  <si>
+    <r>
+      <t>20210929104628000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER-B01-05</t>
+  </si>
+  <si>
+    <t>LSD030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSD023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSD163</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSD162</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSD156</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STKMOVE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7F2C72-97E2-4851-A812-CF0FE3C0E515}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I7" sqref="I7:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -935,6 +1079,226 @@
         <v>20</v>
       </c>
     </row>
+    <row r="7" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5349</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5349</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5349</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5349</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5349</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/batch_excel/eqmove.xlsx
+++ b/batch_excel/eqmove.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python_flask_2021092901\batch_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2773476-53D9-4CAE-8597-7934200248CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABD503F-04C7-427C-945D-B40D25C2DF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D256E0E4-CD53-4A85-9572-A526B47608A5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="60">
   <si>
     <t>strCARRIERTYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,26 +388,6 @@
   </si>
   <si>
     <t>WSD156</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -795,7 +775,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:N11"/>
+      <selection activeCell="H7" sqref="H7:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1102,7 +1082,7 @@
         <v>45</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>19</v>
@@ -1111,10 +1091,10 @@
         <v>20</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>21</v>
@@ -1146,7 +1126,7 @@
         <v>45</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>19</v>
@@ -1155,10 +1135,10 @@
         <v>20</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>21</v>
@@ -1190,7 +1170,7 @@
         <v>45</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>19</v>
@@ -1199,10 +1179,10 @@
         <v>20</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>21</v>
@@ -1234,7 +1214,7 @@
         <v>45</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>19</v>
@@ -1243,10 +1223,10 @@
         <v>20</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>21</v>
@@ -1278,7 +1258,7 @@
         <v>45</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>19</v>
@@ -1287,10 +1267,10 @@
         <v>20</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>21</v>
